--- a/biology/Zoologie/Isanosaurus/Isanosaurus.xlsx
+++ b/biology/Zoologie/Isanosaurus/Isanosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isanosaurus est un genre de dinosaures sauropodes ayant vécu à la fin du Trias, en Thaïlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isanosaurus est un genre de dinosaures sauropodes ayant vécu à la fin du Trias, en Thaïlande.
 Des vertèbres, des fragments de côtes, une omoplate, un fémur et quelques autres os d’Isanosaurus attavipachi ont été découverts en septembre 2000 dans le Nord-Est de la Thaïlande par une équipe de chercheurs comprenant Éric Buffetaut du CNRS.
-Le spécimen d’Isanosaurus attavipachi trouvé était probablement un jeune et ne mesurait que 6,5 m de long[2]. Cet animal devait mesurer plus de 10 mètres de long à l'âge adulte[3] et était peut-être un précurseur des diplodocus. 
+Le spécimen d’Isanosaurus attavipachi trouvé était probablement un jeune et ne mesurait que 6,5 m de long. Cet animal devait mesurer plus de 10 mètres de long à l'âge adulte et était peut-être un précurseur des diplodocus. 
 C'est actuellement le plus ancien sauropode connu, datant d'avant le jurassique. Il date du trias supérieur, il y a plus de 209 millions d'années.
 </t>
         </is>
